--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -4,43 +4,87 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Edit" sheetId="2" r:id="rId2"/>
+    <sheet name="Delete" sheetId="3" r:id="rId3"/>
+    <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
   <si>
     <t>FaxLine</t>
   </si>
   <si>
-    <t>FaxLineName</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
     <t>4444</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>CreditCard</t>
-  </si>
-  <si>
     <t>Enabled</t>
+  </si>
+  <si>
+    <t>Sender Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>AutoAckTemplate</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Defauttest</t>
+  </si>
+  <si>
+    <t>Updated Status</t>
+  </si>
+  <si>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Modify Reason</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>VIP</t>
+  </si>
+  <si>
+    <t>VIPTest</t>
+  </si>
+  <si>
+    <t>Delete Reason</t>
+  </si>
+  <si>
+    <t>Deleted</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Select DNIS as 'Fax Line'
+  ,Type as 'Sender Type'
+  ,Name
+  ,TemplateContent as Template
+  ,Enabled as Status
+  ,LastChangedBy as 'Last Changed By'
+  ,Substring(LastChangedOn,11,18) as 'Last Changed On'
+  FROM [Product_OCM].[dbo].[Fax_AutoAckTemplates]</t>
   </si>
 </sst>
 </file>
@@ -76,10 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,43 +428,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -428,24 +499,169 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -13,12 +13,12 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:I13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="22">
   <si>
     <t>FaxLine</t>
   </si>
@@ -26,9 +26,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>4444</t>
-  </si>
-  <si>
     <t>Enabled</t>
   </si>
   <si>
@@ -47,9 +44,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>Defauttest</t>
-  </si>
-  <si>
     <t>Updated Status</t>
   </si>
   <si>
@@ -63,9 +57,6 @@
   </si>
   <si>
     <t>VIP</t>
-  </si>
-  <si>
-    <t>VIPTest</t>
   </si>
   <si>
     <t>Delete Reason</t>
@@ -85,6 +76,21 @@
   ,LastChangedBy as 'Last Changed By'
   ,Substring(LastChangedOn,11,18) as 'Last Changed On'
   FROM [Product_OCM].[dbo].[Fax_AutoAckTemplates]</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>Defauttest19</t>
+  </si>
+  <si>
+    <t>VIPTest19</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>DefaultTest</t>
   </si>
 </sst>
 </file>
@@ -428,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,50 +452,67 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -502,11 +525,12 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
@@ -516,45 +540,45 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -566,12 +590,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
@@ -581,56 +606,59 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -653,12 +681,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13440" windowHeight="6495" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I13"/>
+  <oleSize ref="A1:K20"/>
 </workbook>
 </file>
 
@@ -66,6 +66,21 @@
   </si>
   <si>
     <t>Query</t>
+  </si>
+  <si>
+    <t>9898</t>
+  </si>
+  <si>
+    <t>Defauttest19</t>
+  </si>
+  <si>
+    <t>VIPTest19</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>DefaultTest</t>
   </si>
   <si>
     <t xml:space="preserve"> Select DNIS as 'Fax Line'
@@ -75,22 +90,7 @@
   ,Enabled as Status
   ,LastChangedBy as 'Last Changed By'
   ,Substring(LastChangedOn,11,18) as 'Last Changed On'
-  FROM [Product_OCM].[dbo].[Fax_AutoAckTemplates]</t>
-  </si>
-  <si>
-    <t>9898</t>
-  </si>
-  <si>
-    <t>Defauttest19</t>
-  </si>
-  <si>
-    <t>VIPTest19</t>
-  </si>
-  <si>
-    <t>1919</t>
-  </si>
-  <si>
-    <t>DefaultTest</t>
+  FROM [Fax_AutoAckTemplates]</t>
   </si>
 </sst>
 </file>
@@ -466,13 +466,13 @@
     </row>
     <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -483,13 +483,13 @@
     </row>
     <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -500,13 +500,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -560,13 +560,13 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,13 +623,13 @@
     </row>
     <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -643,13 +643,13 @@
     </row>
     <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +686,7 @@
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13440" windowHeight="6495" activeTab="2"/>
+    <workbookView xWindow="5160" yWindow="1200" windowWidth="14775" windowHeight="8610" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K20"/>
+  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -670,7 +670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1200" windowWidth="14775" windowHeight="8610" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J20"/>
 </workbook>
 </file>
 
@@ -38,9 +42,6 @@
     <t>Template</t>
   </si>
   <si>
-    <t>AutoAckTemplate</t>
-  </si>
-  <si>
     <t>Default</t>
   </si>
   <si>
@@ -81,6 +82,9 @@
   </si>
   <si>
     <t>DefaultTest</t>
+  </si>
+  <si>
+    <t>gooogle</t>
   </si>
   <si>
     <t xml:space="preserve"> Select DNIS as 'Fax Line'
@@ -89,7 +93,7 @@
   ,TemplateContent as Template
   ,Enabled as Status
   ,LastChangedBy as 'Last Changed By'
-  ,Substring(LastChangedOn,11,18) as 'Last Changed On'
+  ,Substring(LastChangedOn,10,8) as 'Last Changed On'
   FROM [Fax_AutoAckTemplates]</t>
   </si>
 </sst>
@@ -143,6 +147,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -190,7 +197,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,7 +232,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +454,7 @@
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,55 +471,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +532,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +542,7 @@
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,33 +559,33 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -588,10 +595,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +608,7 @@
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -618,47 +625,47 @@
         <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -670,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,7 +688,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">

--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
@@ -197,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,7 +439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -597,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -80,9 +80,6 @@
     <t>DefaultTest</t>
   </si>
   <si>
-    <t>gooogle</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Select DNIS as 'Fax Line'
   ,Type as 'Sender Type'
   ,Name
@@ -91,6 +88,9 @@
   ,LastChangedBy as 'Last Changed By'
   ,Substring(LastChangedOn,10,8) as 'Last Changed On'
   FROM [Fax_AutoAckTemplates]</t>
+  </si>
+  <si>
+    <t>AutoAckTemplate</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -498,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -515,11 +515,12 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -528,7 +529,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -594,7 +595,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -658,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -689,7 +690,7 @@
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -18,6 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M20"/>
 </workbook>
 </file>
 
@@ -82,9 +78,6 @@
   </si>
   <si>
     <t>DefaultTest</t>
-  </si>
-  <si>
-    <t>gooogle</t>
   </si>
   <si>
     <t xml:space="preserve"> Select DNIS as 'Fax Line'
@@ -95,6 +88,9 @@
   ,LastChangedBy as 'Last Changed By'
   ,Substring(LastChangedOn,10,8) as 'Last Changed On'
   FROM [Fax_AutoAckTemplates]</t>
+  </si>
+  <si>
+    <t>AutoAckTemplate</t>
   </si>
 </sst>
 </file>
@@ -197,7 +193,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +228,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -443,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,11 +515,12 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -532,7 +529,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -597,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +639,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
@@ -662,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -693,7 +690,7 @@
     </row>
     <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14775" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M20"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
@@ -90,7 +90,7 @@
   FROM [Fax_AutoAckTemplates]</t>
   </si>
   <si>
-    <t>AutoAckTemplate</t>
+    <t>gooogle</t>
   </si>
 </sst>
 </file>
@@ -440,7 +440,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +585,8 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -595,7 +597,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
+++ b/ocms/src/test/resources/TestData/FaxAutoACKConfigurationData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61631572-4DA3-498A-B1B3-0B85ACC45C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6615"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,6 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
@@ -80,23 +85,23 @@
     <t>DefaultTest</t>
   </si>
   <si>
-    <t xml:space="preserve"> Select DNIS as 'Fax Line'
+    <t>gooogle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select DNIS as 'Fax Line'
   ,Type as 'Sender Type'
   ,Name
   ,TemplateContent as Template
   ,Enabled as Status
   ,LastChangedBy as 'Last Changed By'
-  ,Substring(LastChangedOn,10,8) as 'Last Changed On'
-  FROM [Fax_AutoAckTemplates]</t>
-  </si>
-  <si>
-    <t>gooogle</t>
+  ,LastChangedOn as 'Last Changed On'
+  FROM [Fax_AutoAckTemplates] Order By Name Asc; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -193,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -226,9 +231,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,6 +283,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -436,21 +475,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -481,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -498,10 +537,10 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -515,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -525,21 +564,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -576,7 +615,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -585,29 +624,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -627,7 +664,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -638,16 +675,16 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -661,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>13</v>
@@ -673,26 +710,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
